--- a/report/Testing.xlsx
+++ b/report/Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragul\Desktop\Practicals\report - software engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\GitHub\BikeShareApp\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4400CD73-152A-442E-ACF0-1263888C3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC193D1B-3221-4966-B0A7-0043C32D25C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{DE59B357-5258-48AA-A165-9D7E1963C877}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{DE59B357-5258-48AA-A165-9D7E1963C877}"/>
   </bookViews>
   <sheets>
     <sheet name="acceptance_testing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
   <si>
     <t>acceptance testing</t>
   </si>
@@ -194,9 +194,6 @@
     <t>view future bike availability using predictions</t>
   </si>
   <si>
-    <t>search for a station by name</t>
-  </si>
-  <si>
     <t>view current weather information and predictions</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>map centers near users</t>
   </si>
   <si>
-    <t xml:space="preserve">map updates and shows nearest stations </t>
-  </si>
-  <si>
     <t>get directions - choose station</t>
   </si>
   <si>
@@ -263,12 +257,6 @@
     <t>search: Parnell</t>
   </si>
   <si>
-    <t>station marker highlighted</t>
-  </si>
-  <si>
-    <t>station found and centered</t>
-  </si>
-  <si>
     <t>homepage - check weather widget</t>
   </si>
   <si>
@@ -284,12 +272,6 @@
     <t>station: Grand Canal</t>
   </si>
   <si>
-    <t>station remains selected or visible</t>
-  </si>
-  <si>
-    <t>selection preserved or map recenters</t>
-  </si>
-  <si>
     <t>User Story</t>
   </si>
   <si>
@@ -377,10 +359,39 @@
     <t>O'Connel Street</t>
   </si>
   <si>
-    <t>find the station to my location</t>
-  </si>
-  <si>
     <t>Find directions by changing location</t>
+  </si>
+  <si>
+    <t>share user location</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>map centers at user's location with a maker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter position on map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>the position shows up on the map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>the position shows up with a route</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>show newest data from JCDecaux is presented</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data is updated with notification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>change start location of the trip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,13 +399,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -404,7 +415,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -412,7 +423,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -420,8 +431,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -501,7 +519,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -522,7 +540,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,7 +556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,23 +874,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2287ECCF-6BEC-4583-9AA5-384832242FBC}">
   <dimension ref="C3:U12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="7" width="40.36328125" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="35.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
@@ -890,28 +908,28 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -919,20 +937,20 @@
         <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>2</v>
       </c>
@@ -940,41 +958,41 @@
         <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>4</v>
       </c>
@@ -982,20 +1000,20 @@
         <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>5</v>
       </c>
@@ -1003,79 +1021,79 @@
         <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I12" s="4"/>
     </row>
@@ -1084,6 +1102,7 @@
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="C3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1092,55 +1111,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF1D46E-23F2-4611-9038-F2CBB7FD1EED}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A16" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
-    <col min="5" max="5" width="46.54296875" customWidth="1"/>
-    <col min="6" max="6" width="62.453125" customWidth="1"/>
-    <col min="7" max="7" width="52.90625" customWidth="1"/>
-    <col min="8" max="8" width="62.1796875" customWidth="1"/>
-    <col min="9" max="9" width="45.36328125" customWidth="1"/>
-    <col min="10" max="10" width="60.6328125" customWidth="1"/>
-    <col min="11" max="11" width="37.54296875" customWidth="1"/>
-    <col min="12" max="12" width="27.54296875" customWidth="1"/>
-    <col min="13" max="13" width="36.36328125" customWidth="1"/>
-    <col min="15" max="15" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="62.4140625" customWidth="1"/>
+    <col min="7" max="7" width="52.9140625" customWidth="1"/>
+    <col min="8" max="8" width="62.1640625" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="36.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1244,14 +1263,14 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1262,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1355,14 +1374,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1466,14 +1485,14 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1550,7 +1569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1577,14 +1596,14 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +1647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1639,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1672,9 +1691,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -1683,7 +1702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>29</v>
       </c>
@@ -1715,7 +1734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1785,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -1820,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -1890,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>46</v>
       </c>
@@ -1935,12 +1954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>40</v>
       </c>
@@ -1949,6 +1968,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1962,18 +1982,18 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.4140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1982,7 +2002,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1991,9 +2011,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="4:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -2011,12 +2031,12 @@
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D4" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E4" s="14">
         <v>4</v>
@@ -2038,9 +2058,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D5" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" s="14">
         <v>2</v>
@@ -2062,9 +2082,9 @@
         <v>2.3600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14">
         <v>2</v>
@@ -2086,9 +2106,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5">
         <v>1.8</v>
@@ -2110,9 +2130,9 @@
         <v>2.2199999999999998</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D8" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E8" s="14">
         <v>32</v>
@@ -2134,9 +2154,9 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D9" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E9" s="14">
         <v>40</v>
@@ -2158,9 +2178,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D10" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E10" s="14">
         <v>40</v>
@@ -2182,9 +2202,9 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D11" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E11" s="14">
         <v>45</v>
@@ -2206,29 +2226,30 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2237,22 +2258,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C1DBC1-DE75-49E7-B5A2-3A11636CF44B}">
   <dimension ref="C6:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="58.54296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2262,9 +2283,9 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="3:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>5</v>
@@ -2286,9 +2307,9 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" s="17">
         <v>5</v>
@@ -2311,9 +2332,9 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2336,9 +2357,9 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="17">
         <v>4</v>
@@ -2361,9 +2382,9 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
@@ -2386,9 +2407,9 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D12" s="17">
         <v>5</v>
@@ -2411,9 +2432,9 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
@@ -2436,9 +2457,9 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D14" s="17">
         <v>4</v>
@@ -2461,9 +2482,9 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -2486,9 +2507,9 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" s="17">
         <v>4</v>
@@ -2511,9 +2532,9 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -2536,7 +2557,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2547,6 +2568,7 @@
       <c r="J18" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report/Testing.xlsx
+++ b/report/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_software\GitHub\BikeShareApp\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC193D1B-3221-4966-B0A7-0043C32D25C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7273DA34-9E06-49AC-9B6C-879F8952EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{DE59B357-5258-48AA-A165-9D7E1963C877}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="2" xr2:uid="{DE59B357-5258-48AA-A165-9D7E1963C877}"/>
   </bookViews>
   <sheets>
     <sheet name="acceptance_testing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
   <si>
     <t>acceptance testing</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>O'Connel Street</t>
-  </si>
-  <si>
-    <t>Find directions by changing location</t>
   </si>
   <si>
     <t>share user location</t>
@@ -874,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2287ECCF-6BEC-4583-9AA5-384832242FBC}">
   <dimension ref="C3:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -976,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>60</v>
@@ -988,7 +985,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1039,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -1048,10 +1045,10 @@
         <v>71</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -1090,10 +1087,10 @@
         <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I12" s="4"/>
     </row>
@@ -1111,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF1D46E-23F2-4611-9038-F2CBB7FD1EED}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -1978,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2FFDCA-FFD3-4BE1-B37F-A236AFF2CC7E}">
   <dimension ref="D1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E11" s="14">
         <v>45</v>
